--- a/Spettrometro/reticoloNa.xlsx
+++ b/Spettrometro/reticoloNa.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\ste scuola\lab 2\Laboratorio_2\Spettrometro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL\Stefano\Bicocca\secondo_anno\lab2\Laboratorio_2\Spettrometro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B94D3C-1AE3-4897-A5BE-4B7E4E268CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893DCE9-69D0-4573-9758-B0693FF37E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2D61964-DCAF-4660-911B-25EFBBED7C6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2D61964-DCAF-4660-911B-25EFBBED7C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,40 +20,41 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
-    <t>giallo1 gradi</t>
+    <t>ordine</t>
   </si>
   <si>
-    <t>giallo1 primi</t>
+    <t>gradi dx</t>
   </si>
   <si>
-    <t>giallo1 secondi</t>
+    <t>primi dx</t>
   </si>
   <si>
-    <t>giallo2 gradi</t>
+    <t>secondi dx</t>
   </si>
   <si>
-    <t>giallo2 primi</t>
+    <t>gradi sx</t>
   </si>
   <si>
-    <t>giallo2 secondi</t>
+    <t>primi sx</t>
+  </si>
+  <si>
+    <t>secondi sx</t>
+  </si>
+  <si>
+    <t>^old^</t>
+  </si>
+  <si>
+    <t>^new (bad)^</t>
+  </si>
+  <si>
+    <t>^new(good)^</t>
   </si>
 </sst>
 </file>
@@ -89,9 +90,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -426,15 +426,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3F667-E719-462A-B08B-9554545B0B8A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,9 +462,461 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F2" s="1"/>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>211</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>231</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>231.03299999999999</v>
+      </c>
+      <c r="K2">
+        <v>221.2</v>
+      </c>
+      <c r="L2">
+        <v>211.05</v>
+      </c>
+      <c r="O2">
+        <v>231.01849999999999</v>
+      </c>
+      <c r="P2">
+        <v>221.2</v>
+      </c>
+      <c r="Q2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>231</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>J2-K2</f>
+        <v>9.8329999999999984</v>
+      </c>
+      <c r="L3">
+        <f>L2-K2</f>
+        <v>-10.149999999999977</v>
+      </c>
+      <c r="O3">
+        <f>O2-P2</f>
+        <v>9.8185000000000002</v>
+      </c>
+      <c r="Q3">
+        <f>Q2-P2</f>
+        <v>-10.199999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>211</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>231</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>(J3+L3)/2</f>
+        <v>-0.15849999999998943</v>
+      </c>
+      <c r="P4">
+        <f>(O3+Q3)/2</f>
+        <v>-0.1907499999999942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>199</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>241</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>K4*60</f>
+        <v>-9.5099999999993656</v>
+      </c>
+      <c r="P5">
+        <f>P4*60</f>
+        <v>-11.444999999999652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>199</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>241</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>199</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>241</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>187</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>251</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>187</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>251</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>251</v>
+      </c>
+      <c r="F10">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>211</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>231</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>231.36</v>
+      </c>
+      <c r="K16">
+        <v>221.2</v>
+      </c>
+      <c r="L16">
+        <v>211.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>211</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>231</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <f>J16-K16</f>
+        <v>10.160000000000025</v>
+      </c>
+      <c r="L17">
+        <f>L16-K16</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>241</v>
+      </c>
+      <c r="F18">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>(J17+L17)/2</f>
+        <v>8.0000000000012506E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>241</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>K18*60</f>
+        <v>4.8000000000007503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>189</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>253</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>189</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>253</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spettrometro/reticoloNa.xlsx
+++ b/Spettrometro/reticoloNa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL\Stefano\Bicocca\secondo_anno\lab2\Laboratorio_2\Spettrometro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\Desktop Files\Uni\ANNO2\Laboratorio_2\Spettrometro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893DCE9-69D0-4573-9758-B0693FF37E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF256482-1464-423B-A7DB-6B88D29CA16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2D61964-DCAF-4660-911B-25EFBBED7C6C}"/>
+    <workbookView xWindow="-28920" yWindow="3060" windowWidth="29040" windowHeight="15840" xr2:uid="{C2D61964-DCAF-4660-911B-25EFBBED7C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54,14 +65,14 @@
     <t>^new (bad)^</t>
   </si>
   <si>
-    <t>^new(good)^</t>
+    <t>^new("good")^</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,21 +440,21 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -507,7 +518,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -546,7 +557,7 @@
         <v>-10.199999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1</v>
       </c>
@@ -577,7 +588,7 @@
         <v>-0.1907499999999942</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2</v>
       </c>
@@ -608,7 +619,7 @@
         <v>-11.444999999999652</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>2</v>
       </c>
@@ -631,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>2</v>
       </c>
@@ -660,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>3</v>
       </c>
@@ -683,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>3</v>
       </c>
@@ -706,7 +717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>3</v>
       </c>
@@ -729,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -752,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>1</v>
       </c>
@@ -784,7 +795,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1</v>
       </c>
@@ -815,7 +826,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>2</v>
       </c>
@@ -842,7 +853,7 @@
         <v>8.0000000000012506E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>2</v>
       </c>
@@ -869,7 +880,7 @@
         <v>4.8000000000007503</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>3</v>
       </c>
@@ -892,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>3</v>
       </c>
